--- a/Товары.xlsx
+++ b/Товары.xlsx
@@ -407,10 +407,10 @@
         <v>Склад: Основной склад</v>
       </c>
       <c r="C1" t="str">
-        <v>Общая количество остаток: 2288066.714 шт</v>
+        <v>Общая количество остаток: 2288556.714 шт</v>
       </c>
       <c r="D1" t="str">
-        <v>Общая количество остаток в упаковке: 27268</v>
+        <v>Общая количество остаток в упаковке: 27143</v>
       </c>
     </row>
     <row r="3">
@@ -679,7 +679,7 @@
         <v/>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>13.6</v>
       </c>
       <c r="I9">
-        <v>525</v>
+        <v>507.5</v>
       </c>
       <c r="J9" t="str">
         <v>1648564377067</v>
@@ -723,7 +723,7 @@
         <v/>
       </c>
       <c r="D10">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>4.5</v>
       </c>
       <c r="I10">
-        <v>5472</v>
+        <v>5463</v>
       </c>
       <c r="J10" t="str">
         <v>1660137097590</v>
@@ -1209,7 +1209,7 @@
         <v/>
       </c>
       <c r="D22">
-        <v>-68</v>
+        <v>-69</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>1.1</v>
       </c>
       <c r="I22">
-        <v>-74.8</v>
+        <v>-75.9</v>
       </c>
       <c r="J22" t="str">
         <v>48290197</v>
@@ -2123,7 +2123,7 @@
         <v/>
       </c>
       <c r="D44">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="I44">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J44" t="str">
         <v>1733549522083</v>
@@ -2978,7 +2978,7 @@
         <v/>
       </c>
       <c r="D65">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>10</v>
       </c>
       <c r="I65">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="J65" t="str">
         <v>1655536197878</v>
@@ -3666,7 +3666,7 @@
         <v/>
       </c>
       <c r="D82">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>14</v>
       </c>
       <c r="I82">
-        <v>2618</v>
+        <v>2338</v>
       </c>
       <c r="J82" t="str">
         <v>1693676975889</v>
@@ -3707,7 +3707,7 @@
         <v/>
       </c>
       <c r="D83">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3722,7 +3722,7 @@
         <v>14</v>
       </c>
       <c r="I83">
-        <v>2142</v>
+        <v>1862</v>
       </c>
       <c r="J83" t="str">
         <v>1693676976114</v>
@@ -3748,7 +3748,7 @@
         <v/>
       </c>
       <c r="D84">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>14</v>
       </c>
       <c r="I84">
-        <v>2422</v>
+        <v>2142</v>
       </c>
       <c r="J84" t="str">
         <v>1693676976329</v>
@@ -3871,7 +3871,7 @@
         <v/>
       </c>
       <c r="D87">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>12</v>
       </c>
       <c r="I87">
-        <v>1404</v>
+        <v>1260</v>
       </c>
       <c r="J87" t="str">
         <v>1693677771855</v>
@@ -4117,7 +4117,7 @@
         <v/>
       </c>
       <c r="D93">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>6</v>
       </c>
       <c r="I93">
-        <v>3009.5</v>
+        <v>2957.5</v>
       </c>
       <c r="J93" t="str">
         <v>1693677772814</v>
@@ -4199,7 +4199,7 @@
         <v/>
       </c>
       <c r="D95">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>9.5</v>
       </c>
       <c r="I95">
-        <v>9633</v>
+        <v>9519</v>
       </c>
       <c r="J95" t="str">
         <v>1693677773286</v>
@@ -4322,7 +4322,7 @@
         <v/>
       </c>
       <c r="D98">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4337,7 +4337,7 @@
         <v>35</v>
       </c>
       <c r="I98">
-        <v>4270</v>
+        <v>4235</v>
       </c>
       <c r="J98" t="str">
         <v>1693676847766</v>
@@ -5309,7 +5309,7 @@
         <v/>
       </c>
       <c r="D122">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>2.4</v>
       </c>
       <c r="I122">
-        <v>3905</v>
+        <v>3900</v>
       </c>
       <c r="J122" t="str">
         <v>1694075997366</v>
@@ -5432,7 +5432,7 @@
         <v/>
       </c>
       <c r="D125">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>22</v>
       </c>
       <c r="I125">
-        <v>3388</v>
+        <v>3366</v>
       </c>
       <c r="J125" t="str">
         <v>1693676977258</v>
@@ -8349,7 +8349,7 @@
         <v/>
       </c>
       <c r="D196">
-        <v>-1064</v>
+        <v>-1074</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8364,7 +8364,7 @@
         <v>1.7</v>
       </c>
       <c r="I196">
-        <v>-1915.2</v>
+        <v>-1933.2</v>
       </c>
       <c r="J196" t="str">
         <v>1648550690450</v>
@@ -8774,7 +8774,7 @@
         <v/>
       </c>
       <c r="D206">
-        <v>2577</v>
+        <v>2547</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0.28</v>
       </c>
       <c r="I206">
-        <v>901.95</v>
+        <v>891.45</v>
       </c>
       <c r="J206" t="str">
         <v>1648639118802</v>
@@ -8818,7 +8818,7 @@
         <v/>
       </c>
       <c r="D207">
-        <v>-2210</v>
+        <v>-2230</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -8833,7 +8833,7 @@
         <v>0.28</v>
       </c>
       <c r="I207">
-        <v>-773.5</v>
+        <v>-780.5</v>
       </c>
       <c r="J207" t="str">
         <v>1648639117817</v>
@@ -10429,7 +10429,7 @@
         <v/>
       </c>
       <c r="D246">
-        <v>-68</v>
+        <v>-56</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -10444,7 +10444,7 @@
         <v>11</v>
       </c>
       <c r="I246">
-        <v>-748</v>
+        <v>-616</v>
       </c>
       <c r="J246" t="str">
         <v>1652184043994</v>
@@ -10511,7 +10511,7 @@
         <v/>
       </c>
       <c r="D248">
-        <v>-388</v>
+        <v>-392</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>9</v>
       </c>
       <c r="I248">
-        <v>-3492</v>
+        <v>-3528</v>
       </c>
       <c r="J248" t="str">
         <v>1678789180306</v>
@@ -11176,7 +11176,7 @@
         <v/>
       </c>
       <c r="D264">
-        <v>-303</v>
+        <v>-307</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>1.5</v>
       </c>
       <c r="I264">
-        <v>-454.5</v>
+        <v>-460.5</v>
       </c>
       <c r="J264" t="str">
         <v>1648635468516</v>
@@ -11220,7 +11220,7 @@
         <v/>
       </c>
       <c r="D265">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>2.7</v>
       </c>
       <c r="I265">
-        <v>2200.5</v>
+        <v>2195.1</v>
       </c>
       <c r="J265" t="str">
         <v>1648635468941</v>
@@ -11264,7 +11264,7 @@
         <v/>
       </c>
       <c r="D266">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -11279,7 +11279,7 @@
         <v>3.6</v>
       </c>
       <c r="I266">
-        <v>1494</v>
+        <v>1486.8</v>
       </c>
       <c r="J266" t="str">
         <v>1648635469363</v>
@@ -11812,7 +11812,7 @@
         <v/>
       </c>
       <c r="D279">
-        <v>-5699</v>
+        <v>-5724</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11827,7 +11827,7 @@
         <v>0.1</v>
       </c>
       <c r="I279">
-        <v>-683.88</v>
+        <v>-686.88</v>
       </c>
       <c r="J279" t="str">
         <v>1648811060028</v>
@@ -12190,7 +12190,7 @@
         <v/>
       </c>
       <c r="D288">
-        <v>-793</v>
+        <v>-813</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="I288">
-        <v>-634.4</v>
+        <v>-650.4</v>
       </c>
       <c r="J288" t="str">
         <v>1648872151982</v>
@@ -12389,10 +12389,10 @@
         <v/>
       </c>
       <c r="D293">
-        <v>12370</v>
+        <v>12298</v>
       </c>
       <c r="E293">
-        <v>12370</v>
+        <v>12298</v>
       </c>
       <c r="F293">
         <v>1.9</v>
@@ -12404,7 +12404,7 @@
         <v>1.9</v>
       </c>
       <c r="I293">
-        <v>23503</v>
+        <v>23366.2</v>
       </c>
       <c r="J293" t="str">
         <v>1649567980104</v>
@@ -12890,7 +12890,7 @@
         <v/>
       </c>
       <c r="D305">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -12905,7 +12905,7 @@
         <v>10.75</v>
       </c>
       <c r="I305">
-        <v>-471.5</v>
+        <v>-494.5</v>
       </c>
       <c r="J305" t="str">
         <v>1648550675769</v>
@@ -13977,7 +13977,7 @@
         <v/>
       </c>
       <c r="D331">
-        <v>-78</v>
+        <v>-118</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -13992,7 +13992,7 @@
         <v>9.75</v>
       </c>
       <c r="I331">
-        <v>-795.6</v>
+        <v>-1203.6</v>
       </c>
       <c r="J331" t="str">
         <v>1648550684212</v>
@@ -15283,7 +15283,7 @@
         <v/>
       </c>
       <c r="D363">
-        <v>-161</v>
+        <v>-164</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -15298,7 +15298,7 @@
         <v>57</v>
       </c>
       <c r="I363">
-        <v>-9338</v>
+        <v>-9512</v>
       </c>
       <c r="J363" t="str">
         <v>1648819954782</v>
@@ -15324,7 +15324,7 @@
         <v/>
       </c>
       <c r="D364">
-        <v>-221</v>
+        <v>-227</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -15339,7 +15339,7 @@
         <v>6</v>
       </c>
       <c r="I364">
-        <v>-13923</v>
+        <v>-14301</v>
       </c>
       <c r="J364" t="str">
         <v>1648819954966</v>
@@ -15406,7 +15406,7 @@
         <v/>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E366">
         <v>0</v>
@@ -15421,7 +15421,7 @@
         <v>59</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="J366" t="str">
         <v>1663484732374</v>
@@ -15772,7 +15772,7 @@
         <v/>
       </c>
       <c r="D375">
-        <v>-115</v>
+        <v>-127</v>
       </c>
       <c r="E375">
         <v>0</v>
@@ -15787,7 +15787,7 @@
         <v>18</v>
       </c>
       <c r="I375">
-        <v>-2300</v>
+        <v>-2540</v>
       </c>
       <c r="J375" t="str">
         <v>1648550685170</v>
@@ -16902,7 +16902,7 @@
         <v/>
       </c>
       <c r="D403">
-        <v>-262</v>
+        <v>-264</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -16917,7 +16917,7 @@
         <v>6.7</v>
       </c>
       <c r="I403">
-        <v>-1860.2</v>
+        <v>-1874.4</v>
       </c>
       <c r="J403" t="str">
         <v>1649047917315</v>
@@ -16943,7 +16943,7 @@
         <v/>
       </c>
       <c r="D404">
-        <v>-878</v>
+        <v>-880</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -16958,7 +16958,7 @@
         <v>6.9</v>
       </c>
       <c r="I404">
-        <v>-6409.4</v>
+        <v>-6424</v>
       </c>
       <c r="J404" t="str">
         <v>1649047932429</v>
@@ -18560,7 +18560,7 @@
         <v/>
       </c>
       <c r="D443">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -18575,7 +18575,7 @@
         <v>10.833</v>
       </c>
       <c r="I443">
-        <v>-225</v>
+        <v>-250</v>
       </c>
       <c r="J443" t="str">
         <v>1664426937447</v>
@@ -18598,7 +18598,7 @@
         <v/>
       </c>
       <c r="D444">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E444">
         <v>0</v>
@@ -18613,7 +18613,7 @@
         <v>7.5</v>
       </c>
       <c r="I444">
-        <v>847.5</v>
+        <v>832.5</v>
       </c>
       <c r="J444" t="str">
         <v>1648567095308</v>
@@ -18642,7 +18642,7 @@
         <v/>
       </c>
       <c r="D445">
-        <v>-563</v>
+        <v>-565</v>
       </c>
       <c r="E445">
         <v>0</v>
@@ -18657,7 +18657,7 @@
         <v>4.4</v>
       </c>
       <c r="I445">
-        <v>-3096.5</v>
+        <v>-3107.5</v>
       </c>
       <c r="J445" t="str">
         <v>1648567094883</v>
@@ -19020,7 +19020,7 @@
         <v/>
       </c>
       <c r="D454">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -19035,7 +19035,7 @@
         <v>1.1</v>
       </c>
       <c r="I454">
-        <v>2371.6</v>
+        <v>2368.3</v>
       </c>
       <c r="J454" t="str">
         <v>1648632696992</v>
@@ -19231,7 +19231,7 @@
         <v/>
       </c>
       <c r="D459">
-        <v>5787</v>
+        <v>5782</v>
       </c>
       <c r="E459">
         <v>0</v>
@@ -19246,7 +19246,7 @@
         <v>0.1</v>
       </c>
       <c r="I459">
-        <v>868.05</v>
+        <v>867.3</v>
       </c>
       <c r="J459" t="str">
         <v>1648720205554</v>
@@ -19556,7 +19556,7 @@
         <v/>
       </c>
       <c r="D467">
-        <v>-3850</v>
+        <v>-3870</v>
       </c>
       <c r="E467">
         <v>0</v>
@@ -19571,7 +19571,7 @@
         <v>0.85</v>
       </c>
       <c r="I467">
-        <v>-3850</v>
+        <v>-3870</v>
       </c>
       <c r="J467" t="str">
         <v>1648652932834</v>
@@ -21729,7 +21729,7 @@
         <v/>
       </c>
       <c r="D520">
-        <v>4560</v>
+        <v>4555</v>
       </c>
       <c r="E520">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>0.85</v>
       </c>
       <c r="I520">
-        <v>4104</v>
+        <v>4099.5</v>
       </c>
       <c r="J520" t="str">
         <v>1648635454356</v>
@@ -22151,7 +22151,7 @@
         <v/>
       </c>
       <c r="D530">
-        <v>5085</v>
+        <v>5075</v>
       </c>
       <c r="E530">
         <v>0</v>
@@ -22166,7 +22166,7 @@
         <v>0.5</v>
       </c>
       <c r="I530">
-        <v>2542.5</v>
+        <v>2537.5</v>
       </c>
       <c r="J530" t="str">
         <v>1648635466415</v>
@@ -22236,7 +22236,7 @@
         <v/>
       </c>
       <c r="D532">
-        <v>5593</v>
+        <v>5583</v>
       </c>
       <c r="E532">
         <v>0</v>
@@ -22251,7 +22251,7 @@
         <v>0.5</v>
       </c>
       <c r="I532">
-        <v>2796.5</v>
+        <v>2791.5</v>
       </c>
       <c r="J532" t="str">
         <v>1692861344448</v>
@@ -22963,7 +22963,7 @@
         <v/>
       </c>
       <c r="D549">
-        <v>-687</v>
+        <v>-698</v>
       </c>
       <c r="E549">
         <v>0</v>
@@ -22978,7 +22978,7 @@
         <v>1.4</v>
       </c>
       <c r="I549">
-        <v>-1374</v>
+        <v>-1396</v>
       </c>
       <c r="J549" t="str">
         <v>1648649921140</v>
@@ -24320,7 +24320,7 @@
         <v/>
       </c>
       <c r="D581">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="E581">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>2</v>
       </c>
       <c r="I581">
-        <v>2492</v>
+        <v>2468</v>
       </c>
       <c r="J581" t="str">
         <v>1648635449250</v>
@@ -25995,7 +25995,7 @@
         <v/>
       </c>
       <c r="D622">
-        <v>-1891</v>
+        <v>-1896</v>
       </c>
       <c r="E622">
         <v>0</v>
@@ -26010,7 +26010,7 @@
         <v>0.957</v>
       </c>
       <c r="I622">
-        <v>-2174.65</v>
+        <v>-2180.4</v>
       </c>
       <c r="J622" t="str">
         <v>1648632701354</v>
@@ -30308,7 +30308,7 @@
         <v/>
       </c>
       <c r="D725">
-        <v>9470</v>
+        <v>9440</v>
       </c>
       <c r="E725">
         <v>0</v>
@@ -30323,7 +30323,7 @@
         <v>1.06</v>
       </c>
       <c r="I725">
-        <v>10890.5</v>
+        <v>10856</v>
       </c>
       <c r="J725" t="str">
         <v>1648564953799</v>
@@ -30434,7 +30434,7 @@
         <v/>
       </c>
       <c r="D728">
-        <v>-7</v>
+        <v>-20</v>
       </c>
       <c r="E728">
         <v>0</v>
@@ -30449,7 +30449,7 @@
         <v>8.5</v>
       </c>
       <c r="I728">
-        <v>-66.5</v>
+        <v>-190</v>
       </c>
       <c r="J728" t="str">
         <v>1683095900070</v>
@@ -30642,7 +30642,7 @@
         <v/>
       </c>
       <c r="D733">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E733">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>8.8</v>
       </c>
       <c r="I733">
-        <v>2024</v>
+        <v>1969</v>
       </c>
       <c r="J733" t="str">
         <v>1648719915490</v>
@@ -30806,7 +30806,7 @@
         <v/>
       </c>
       <c r="D737">
-        <v>1352</v>
+        <v>1332</v>
       </c>
       <c r="E737">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0.85</v>
       </c>
       <c r="I737">
-        <v>1352</v>
+        <v>1332</v>
       </c>
       <c r="J737" t="str">
         <v>1657982616269</v>
@@ -30885,7 +30885,7 @@
         <v/>
       </c>
       <c r="D739">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E739">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>1.55</v>
       </c>
       <c r="I739">
-        <v>73.1</v>
+        <v>59.5</v>
       </c>
       <c r="J739" t="str">
         <v>1648628176234</v>
@@ -31767,7 +31767,7 @@
         <v/>
       </c>
       <c r="D760">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="E760">
         <v>0</v>
@@ -31782,7 +31782,7 @@
         <v>1.3</v>
       </c>
       <c r="I760">
-        <v>2548</v>
+        <v>2534</v>
       </c>
       <c r="J760" t="str">
         <v>1649136408180</v>
@@ -32063,10 +32063,10 @@
         <v/>
       </c>
       <c r="D767">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="E767">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F767">
         <v>1.3</v>
@@ -32078,7 +32078,7 @@
         <v>1.3</v>
       </c>
       <c r="I767">
-        <v>2629.9</v>
+        <v>2623.4</v>
       </c>
       <c r="J767" t="str">
         <v>1650349478003</v>
@@ -32151,7 +32151,7 @@
         <v/>
       </c>
       <c r="D769">
-        <v>3381</v>
+        <v>3301</v>
       </c>
       <c r="E769">
         <v>0</v>
@@ -32166,7 +32166,7 @@
         <v>1.6</v>
       </c>
       <c r="I769">
-        <v>5409.6</v>
+        <v>5281.6</v>
       </c>
       <c r="J769" t="str">
         <v>1648567093129</v>
@@ -32658,7 +32658,7 @@
         <v/>
       </c>
       <c r="D781">
-        <v>-21</v>
+        <v>-31</v>
       </c>
       <c r="E781">
         <v>0</v>
@@ -32673,7 +32673,7 @@
         <v>5.5</v>
       </c>
       <c r="I781">
-        <v>-115.5</v>
+        <v>-170.5</v>
       </c>
       <c r="J781" t="str">
         <v>1675492372558</v>
@@ -32822,7 +32822,7 @@
         <v/>
       </c>
       <c r="D785">
-        <v>2538</v>
+        <v>2526</v>
       </c>
       <c r="E785">
         <v>0</v>
@@ -32837,7 +32837,7 @@
         <v>8</v>
       </c>
       <c r="I785">
-        <v>20304</v>
+        <v>20208</v>
       </c>
       <c r="J785" t="str">
         <v>1660137102110</v>
@@ -34640,7 +34640,7 @@
         <v/>
       </c>
       <c r="D830">
-        <v>3775</v>
+        <v>3771</v>
       </c>
       <c r="E830">
         <v>0</v>
@@ -34655,7 +34655,7 @@
         <v>0.13</v>
       </c>
       <c r="I830">
-        <v>755</v>
+        <v>754.2</v>
       </c>
       <c r="J830" t="str">
         <v>1695023933795</v>
@@ -35161,7 +35161,7 @@
         <v/>
       </c>
       <c r="D843">
-        <v>83373</v>
+        <v>83367</v>
       </c>
       <c r="E843">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0.27</v>
       </c>
       <c r="I843">
-        <v>25011.9</v>
+        <v>25010.1</v>
       </c>
       <c r="J843" t="str">
         <v>1648564378578</v>
@@ -35246,7 +35246,7 @@
         <v/>
       </c>
       <c r="D845">
-        <v>95836</v>
+        <v>95826</v>
       </c>
       <c r="E845">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0.25</v>
       </c>
       <c r="I845">
-        <v>25875.72</v>
+        <v>25873.02</v>
       </c>
       <c r="J845" t="str">
         <v>1648632689617</v>
@@ -36022,7 +36022,7 @@
         <v/>
       </c>
       <c r="D864">
-        <v>12608</v>
+        <v>12598</v>
       </c>
       <c r="E864">
         <v>0</v>
@@ -36037,7 +36037,7 @@
         <v>0.18</v>
       </c>
       <c r="I864">
-        <v>3782.4</v>
+        <v>3779.4</v>
       </c>
       <c r="J864" t="str">
         <v>1695023936444</v>
@@ -36060,7 +36060,7 @@
         <v/>
       </c>
       <c r="D865">
-        <v>2863</v>
+        <v>2853</v>
       </c>
       <c r="E865">
         <v>0</v>
@@ -36075,7 +36075,7 @@
         <v>0.22</v>
       </c>
       <c r="I865">
-        <v>1087.94</v>
+        <v>1084.14</v>
       </c>
       <c r="J865" t="str">
         <v>1695023936093</v>
@@ -36098,7 +36098,7 @@
         <v/>
       </c>
       <c r="D866">
-        <v>-1112</v>
+        <v>-1114</v>
       </c>
       <c r="E866">
         <v>0</v>
@@ -36113,7 +36113,7 @@
         <v>0.38</v>
       </c>
       <c r="I866">
-        <v>-422.56</v>
+        <v>-423.32</v>
       </c>
       <c r="J866" t="str">
         <v>1695023936253</v>
@@ -36136,7 +36136,7 @@
         <v/>
       </c>
       <c r="D867">
-        <v>3713</v>
+        <v>3708</v>
       </c>
       <c r="E867">
         <v>0</v>
@@ -36151,7 +36151,7 @@
         <v>1.6</v>
       </c>
       <c r="I867">
-        <v>5940.8</v>
+        <v>5932.8</v>
       </c>
       <c r="J867" t="str">
         <v>1649139944047</v>
@@ -36265,7 +36265,7 @@
         <v/>
       </c>
       <c r="D870">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="E870">
         <v>0</v>
@@ -36280,7 +36280,7 @@
         <v>4.8</v>
       </c>
       <c r="I870">
-        <v>15009.6</v>
+        <v>15000</v>
       </c>
       <c r="J870" t="str">
         <v>1649149511633</v>
@@ -36640,7 +36640,7 @@
         <v/>
       </c>
       <c r="D879">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E879">
         <v>0</v>
@@ -36655,7 +36655,7 @@
         <v>1</v>
       </c>
       <c r="I879">
-        <v>993.6</v>
+        <v>986.4</v>
       </c>
       <c r="J879" t="str">
         <v>1648567089428</v>
@@ -36962,7 +36962,7 @@
         <v/>
       </c>
       <c r="D887">
-        <v>1821</v>
+        <v>1811</v>
       </c>
       <c r="E887">
         <v>0</v>
@@ -36977,7 +36977,7 @@
         <v>1</v>
       </c>
       <c r="I887">
-        <v>1821</v>
+        <v>1811</v>
       </c>
       <c r="J887" t="str">
         <v>20905545</v>
@@ -37372,7 +37372,7 @@
         <v/>
       </c>
       <c r="D897">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E897">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>3.375</v>
       </c>
       <c r="I897">
-        <v>447.525</v>
+        <v>409.275</v>
       </c>
       <c r="J897" t="str">
         <v>1648719099119</v>
@@ -37600,7 +37600,7 @@
         <v/>
       </c>
       <c r="D903">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E903">
         <v>0</v>
@@ -37615,7 +37615,7 @@
         <v>2.1</v>
       </c>
       <c r="I903">
-        <v>497.42</v>
+        <v>473.62</v>
       </c>
       <c r="J903" t="str">
         <v>1648719564369</v>
@@ -37714,7 +37714,7 @@
         <v/>
       </c>
       <c r="D906">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E906">
         <v>0</v>
@@ -37729,7 +37729,7 @@
         <v>3</v>
       </c>
       <c r="I906">
-        <v>656.2</v>
+        <v>622.2</v>
       </c>
       <c r="J906" t="str">
         <v>1648719564658</v>
@@ -37752,7 +37752,7 @@
         <v/>
       </c>
       <c r="D907">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E907">
         <v>0</v>
@@ -37767,7 +37767,7 @@
         <v>3.375</v>
       </c>
       <c r="I907">
-        <v>313.65</v>
+        <v>294.525</v>
       </c>
       <c r="J907" t="str">
         <v>1648719564810</v>
@@ -39003,7 +39003,7 @@
         <v/>
       </c>
       <c r="D937">
-        <v>3236</v>
+        <v>3186</v>
       </c>
       <c r="E937">
         <v>0</v>
@@ -39018,7 +39018,7 @@
         <v>0.8</v>
       </c>
       <c r="I937">
-        <v>2750.6</v>
+        <v>2708.1</v>
       </c>
       <c r="J937" t="str">
         <v>1648557406723</v>
@@ -39088,7 +39088,7 @@
         <v/>
       </c>
       <c r="D939">
-        <v>9696</v>
+        <v>9476</v>
       </c>
       <c r="E939">
         <v>0</v>
@@ -39103,7 +39103,7 @@
         <v>0.4</v>
       </c>
       <c r="I939">
-        <v>4363.2</v>
+        <v>4264.2</v>
       </c>
       <c r="J939" t="str">
         <v>1648557250901</v>
@@ -39475,7 +39475,7 @@
         <v/>
       </c>
       <c r="D948">
-        <v>-579</v>
+        <v>-594</v>
       </c>
       <c r="E948">
         <v>0</v>
@@ -39490,7 +39490,7 @@
         <v>2.27</v>
       </c>
       <c r="I948">
-        <v>-1447.5</v>
+        <v>-1485</v>
       </c>
       <c r="J948" t="str">
         <v>1648634924388</v>
@@ -39765,7 +39765,7 @@
         <v/>
       </c>
       <c r="D955">
-        <v>-353</v>
+        <v>-373</v>
       </c>
       <c r="E955">
         <v>0</v>
@@ -39780,7 +39780,7 @@
         <v>5.55</v>
       </c>
       <c r="I955">
-        <v>-2118</v>
+        <v>-2238</v>
       </c>
       <c r="J955" t="str">
         <v>1652343286525</v>
@@ -42767,7 +42767,7 @@
         <v/>
       </c>
       <c r="D1028">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="E1028">
         <v>0</v>
@@ -42782,7 +42782,7 @@
         <v>2.3</v>
       </c>
       <c r="I1028">
-        <v>237.5</v>
+        <v>362.5</v>
       </c>
       <c r="J1028" t="str">
         <v>1648818988298</v>
@@ -44861,7 +44861,7 @@
         <v/>
       </c>
       <c r="D1079">
-        <v>12187</v>
+        <v>12127</v>
       </c>
       <c r="E1079">
         <v>0</v>
@@ -44876,7 +44876,7 @@
         <v>0.28</v>
       </c>
       <c r="I1079">
-        <v>3412.36</v>
+        <v>3395.56</v>
       </c>
       <c r="J1079" t="str">
         <v>1648632693702</v>
@@ -44905,7 +44905,7 @@
         <v/>
       </c>
       <c r="D1080">
-        <v>-29398</v>
+        <v>-29408</v>
       </c>
       <c r="E1080">
         <v>0</v>
@@ -44920,7 +44920,7 @@
         <v>0.14</v>
       </c>
       <c r="I1080">
-        <v>-4115.72</v>
+        <v>-4117.12</v>
       </c>
       <c r="J1080" t="str">
         <v>1648721438778</v>
@@ -45362,7 +45362,7 @@
         <v/>
       </c>
       <c r="D1091">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="E1091">
         <v>0</v>
@@ -45377,7 +45377,7 @@
         <v>3</v>
       </c>
       <c r="I1091">
-        <v>262.5</v>
+        <v>612.5</v>
       </c>
       <c r="J1091" t="str">
         <v>1648628175578</v>
@@ -45529,7 +45529,7 @@
         <v/>
       </c>
       <c r="D1095">
-        <v>-31</v>
+        <v>269</v>
       </c>
       <c r="E1095">
         <v>0</v>
@@ -45541,10 +45541,10 @@
         <v>0</v>
       </c>
       <c r="H1095">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="I1095">
-        <v>-55.8</v>
+        <v>484.2</v>
       </c>
       <c r="J1095" t="str">
         <v>1648564375630</v>
@@ -46109,7 +46109,7 @@
         <v/>
       </c>
       <c r="D1109">
-        <v>-1822</v>
+        <v>-1856</v>
       </c>
       <c r="E1109">
         <v>0</v>
@@ -46124,7 +46124,7 @@
         <v>4</v>
       </c>
       <c r="I1109">
-        <v>-7834.6</v>
+        <v>-7980.8</v>
       </c>
       <c r="J1109" t="str">
         <v>1648110167226</v>
@@ -47287,7 +47287,7 @@
         <v/>
       </c>
       <c r="D1137">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="E1137">
         <v>0</v>
@@ -47302,7 +47302,7 @@
         <v>0.7</v>
       </c>
       <c r="I1137">
-        <v>2238</v>
+        <v>2227.5</v>
       </c>
       <c r="J1137" t="str">
         <v>1651899901695</v>
@@ -47451,7 +47451,7 @@
         <v/>
       </c>
       <c r="D1141">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E1141">
         <v>0</v>
@@ -47466,7 +47466,7 @@
         <v>0.6</v>
       </c>
       <c r="I1141">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="J1141" t="str">
         <v>1662898323485</v>
@@ -47571,7 +47571,7 @@
         <v/>
       </c>
       <c r="D1144">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E1144">
         <v>0</v>
@@ -47586,7 +47586,7 @@
         <v>1.3</v>
       </c>
       <c r="I1144">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="J1144" t="str">
         <v>1692716096157</v>
@@ -47808,7 +47808,7 @@
         <v/>
       </c>
       <c r="D1150">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E1150">
         <v>0</v>
@@ -47823,7 +47823,7 @@
         <v>0.9</v>
       </c>
       <c r="I1150">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J1150" t="str">
         <v>1651899976712</v>
@@ -48013,7 +48013,7 @@
         <v/>
       </c>
       <c r="D1155">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="E1155">
         <v>0</v>
@@ -48028,7 +48028,7 @@
         <v>2.5</v>
       </c>
       <c r="I1155">
-        <v>2562.5</v>
+        <v>2542.5</v>
       </c>
       <c r="J1155" t="str">
         <v>1658733749953</v>
@@ -48054,7 +48054,7 @@
         <v/>
       </c>
       <c r="D1156">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E1156">
         <v>0</v>
@@ -48069,7 +48069,7 @@
         <v>3</v>
       </c>
       <c r="I1156">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="J1156" t="str">
         <v>1651663055438</v>
@@ -48095,7 +48095,7 @@
         <v/>
       </c>
       <c r="D1157">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E1157">
         <v>0</v>
@@ -48110,7 +48110,7 @@
         <v>1.5</v>
       </c>
       <c r="I1157">
-        <v>400.5</v>
+        <v>396</v>
       </c>
       <c r="J1157" t="str">
         <v>1648648110345</v>
@@ -48183,7 +48183,7 @@
         <v/>
       </c>
       <c r="D1159">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E1159">
         <v>0</v>
@@ -48198,7 +48198,7 @@
         <v>1</v>
       </c>
       <c r="I1159">
-        <v>76.5</v>
+        <v>69</v>
       </c>
       <c r="J1159" t="str">
         <v>1648648109433</v>
@@ -48561,7 +48561,7 @@
         <v/>
       </c>
       <c r="D1168">
-        <v>-908</v>
+        <v>-912</v>
       </c>
       <c r="E1168">
         <v>0</v>
@@ -48576,7 +48576,7 @@
         <v>0.4</v>
       </c>
       <c r="I1168">
-        <v>-363.2</v>
+        <v>-364.8</v>
       </c>
       <c r="J1168" t="str">
         <v>1648632689773</v>
@@ -49560,7 +49560,7 @@
         <v/>
       </c>
       <c r="D1192">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E1192">
         <v>0</v>
@@ -49575,7 +49575,7 @@
         <v>0.23</v>
       </c>
       <c r="I1192">
-        <v>28.7</v>
+        <v>26.95</v>
       </c>
       <c r="J1192" t="str">
         <v>1648648109141</v>
@@ -50433,7 +50433,7 @@
         <v/>
       </c>
       <c r="D1213">
-        <v>-127</v>
+        <v>168</v>
       </c>
       <c r="E1213">
         <v>0</v>
@@ -50448,7 +50448,7 @@
         <v>2.3</v>
       </c>
       <c r="I1213">
-        <v>-330.2</v>
+        <v>436.8</v>
       </c>
       <c r="J1213" t="str">
         <v>1648632690788</v>
@@ -51473,7 +51473,7 @@
         <v/>
       </c>
       <c r="D1238">
-        <v>-320</v>
+        <v>-120</v>
       </c>
       <c r="E1238">
         <v>0</v>
@@ -51488,7 +51488,7 @@
         <v>4.3</v>
       </c>
       <c r="I1238">
-        <v>-1408</v>
+        <v>-528</v>
       </c>
       <c r="J1238" t="str">
         <v>1648649082334</v>
@@ -51643,7 +51643,7 @@
         <v/>
       </c>
       <c r="D1242">
-        <v>-288</v>
+        <v>-368</v>
       </c>
       <c r="E1242">
         <v>0</v>
@@ -51658,7 +51658,7 @@
         <v>3.5</v>
       </c>
       <c r="I1242">
-        <v>-1584</v>
+        <v>-2024</v>
       </c>
       <c r="J1242" t="str">
         <v>1648814736897</v>
@@ -52299,7 +52299,7 @@
         <v/>
       </c>
       <c r="D1258">
-        <v>-4714</v>
+        <v>-4754</v>
       </c>
       <c r="E1258">
         <v>0</v>
@@ -52314,7 +52314,7 @@
         <v>0.85</v>
       </c>
       <c r="I1258">
-        <v>-4714</v>
+        <v>-4754</v>
       </c>
       <c r="J1258" t="str">
         <v>1648710185239</v>
@@ -53128,7 +53128,7 @@
         <v/>
       </c>
       <c r="D1278">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="E1278">
         <v>0</v>
@@ -53143,7 +53143,7 @@
         <v>9.5</v>
       </c>
       <c r="I1278">
-        <v>-85.5</v>
+        <v>-104.5</v>
       </c>
       <c r="J1278" t="str">
         <v>1648107925676</v>
@@ -53412,7 +53412,7 @@
         <v/>
       </c>
       <c r="D1285">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1285">
         <v>0</v>
@@ -53427,7 +53427,7 @@
         <v>26</v>
       </c>
       <c r="I1285">
-        <v>1276</v>
+        <v>1189</v>
       </c>
       <c r="J1285" t="str">
         <v>1654860352966</v>
@@ -54044,7 +54044,7 @@
         <v/>
       </c>
       <c r="D1301">
-        <v>11202</v>
+        <v>11092</v>
       </c>
       <c r="E1301">
         <v>0</v>
@@ -54059,7 +54059,7 @@
         <v>0.09</v>
       </c>
       <c r="I1301">
-        <v>1344.24</v>
+        <v>1331.04</v>
       </c>
       <c r="J1301" t="str">
         <v>1648638742276</v>
@@ -54088,7 +54088,7 @@
         <v/>
       </c>
       <c r="D1302">
-        <v>5038</v>
+        <v>5036</v>
       </c>
       <c r="E1302">
         <v>0</v>
@@ -54103,7 +54103,7 @@
         <v>0.17</v>
       </c>
       <c r="I1302">
-        <v>1108.36</v>
+        <v>1107.92</v>
       </c>
       <c r="J1302" t="str">
         <v>1648638742752</v>
@@ -54261,7 +54261,7 @@
         <v/>
       </c>
       <c r="D1306">
-        <v>6361</v>
+        <v>6161</v>
       </c>
       <c r="E1306">
         <v>0</v>
@@ -54276,7 +54276,7 @@
         <v>0.18</v>
       </c>
       <c r="I1306">
-        <v>1144.98</v>
+        <v>1108.98</v>
       </c>
       <c r="J1306" t="str">
         <v>1658896454440</v>
@@ -54302,7 +54302,7 @@
         <v/>
       </c>
       <c r="D1307">
-        <v>3927</v>
+        <v>3917</v>
       </c>
       <c r="E1307">
         <v>0</v>
@@ -54317,7 +54317,7 @@
         <v>0.11</v>
       </c>
       <c r="I1307">
-        <v>589.05</v>
+        <v>587.55</v>
       </c>
       <c r="J1307" t="str">
         <v>1648635464368</v>
@@ -54472,7 +54472,7 @@
         <v/>
       </c>
       <c r="D1311">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="E1311">
         <v>0</v>
@@ -54487,7 +54487,7 @@
         <v>0.25</v>
       </c>
       <c r="I1311">
-        <v>343.8</v>
+        <v>340.8</v>
       </c>
       <c r="J1311" t="str">
         <v>1649149213660</v>
@@ -54601,7 +54601,7 @@
         <v/>
       </c>
       <c r="D1314">
-        <v>2652</v>
+        <v>2632</v>
       </c>
       <c r="E1314">
         <v>0</v>
@@ -54616,7 +54616,7 @@
         <v>0.161</v>
       </c>
       <c r="I1314">
-        <v>583.44</v>
+        <v>579.04</v>
       </c>
       <c r="J1314" t="str">
         <v>1648635463597</v>
@@ -54645,7 +54645,7 @@
         <v/>
       </c>
       <c r="D1315">
-        <v>5510</v>
+        <v>5500</v>
       </c>
       <c r="E1315">
         <v>0</v>
@@ -54660,7 +54660,7 @@
         <v>0.22</v>
       </c>
       <c r="I1315">
-        <v>1212.2</v>
+        <v>1210</v>
       </c>
       <c r="J1315" t="str">
         <v>1648708830099</v>
@@ -54856,7 +54856,7 @@
         <v/>
       </c>
       <c r="D1320">
-        <v>41188</v>
+        <v>41178</v>
       </c>
       <c r="E1320">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0.1</v>
       </c>
       <c r="I1320">
-        <v>4530.68</v>
+        <v>4529.58</v>
       </c>
       <c r="J1320" t="str">
         <v>1652165695590</v>
@@ -55184,7 +55184,7 @@
         <v/>
       </c>
       <c r="D1328">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="E1328">
         <v>0</v>
@@ -55199,7 +55199,7 @@
         <v>3.52</v>
       </c>
       <c r="I1328">
-        <v>3316.78</v>
+        <v>3289.97</v>
       </c>
       <c r="J1328" t="str">
         <v>1648628173525</v>
@@ -55524,7 +55524,7 @@
         <v/>
       </c>
       <c r="D1336">
-        <v>4486</v>
+        <v>4476</v>
       </c>
       <c r="E1336">
         <v>0</v>
@@ -55539,7 +55539,7 @@
         <v>1.11</v>
       </c>
       <c r="I1336">
-        <v>5428.06</v>
+        <v>5415.96</v>
       </c>
       <c r="J1336" t="str">
         <v>1648652506291</v>
@@ -55568,7 +55568,7 @@
         <v/>
       </c>
       <c r="D1337">
-        <v>-61</v>
+        <v>-66</v>
       </c>
       <c r="E1337">
         <v>0</v>
@@ -55583,7 +55583,7 @@
         <v>3</v>
       </c>
       <c r="I1337">
-        <v>-195.2</v>
+        <v>-211.2</v>
       </c>
       <c r="J1337" t="str">
         <v>1648628174583</v>
@@ -56653,7 +56653,7 @@
         <v/>
       </c>
       <c r="D1362">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E1362">
         <v>0</v>
@@ -56668,7 +56668,7 @@
         <v>4.3</v>
       </c>
       <c r="I1362">
-        <v>927</v>
+        <v>904.5</v>
       </c>
       <c r="J1362" t="str">
         <v>1660191015304</v>
@@ -56694,7 +56694,7 @@
         <v/>
       </c>
       <c r="D1363">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="E1363">
         <v>0</v>
@@ -56709,7 +56709,7 @@
         <v>2</v>
       </c>
       <c r="I1363">
-        <v>348.6</v>
+        <v>600.6</v>
       </c>
       <c r="J1363" t="str">
         <v>1648628177566</v>
@@ -56738,7 +56738,7 @@
         <v/>
       </c>
       <c r="D1364">
-        <v>244</v>
+        <v>689</v>
       </c>
       <c r="E1364">
         <v>0</v>
@@ -56753,7 +56753,7 @@
         <v>2.7</v>
       </c>
       <c r="I1364">
-        <v>683.2</v>
+        <v>1929.2</v>
       </c>
       <c r="J1364" t="str">
         <v>1648628177232</v>
@@ -56782,7 +56782,7 @@
         <v/>
       </c>
       <c r="D1365">
-        <v>-30</v>
+        <v>106</v>
       </c>
       <c r="E1365">
         <v>0</v>
@@ -56797,7 +56797,7 @@
         <v>1.8</v>
       </c>
       <c r="I1365">
-        <v>-57</v>
+        <v>201.4</v>
       </c>
       <c r="J1365" t="str">
         <v>1648118261070</v>
@@ -56826,7 +56826,7 @@
         <v/>
       </c>
       <c r="D1366">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="E1366">
         <v>0</v>
@@ -56841,7 +56841,7 @@
         <v>1.6</v>
       </c>
       <c r="I1366">
-        <v>3.4</v>
+        <v>428.4</v>
       </c>
       <c r="J1366" t="str">
         <v>1648654542662</v>
@@ -56867,7 +56867,7 @@
         <v/>
       </c>
       <c r="D1367">
-        <v>-47</v>
+        <v>553</v>
       </c>
       <c r="E1367">
         <v>0</v>
@@ -56882,7 +56882,7 @@
         <v>1.9</v>
       </c>
       <c r="I1367">
-        <v>-94</v>
+        <v>1106</v>
       </c>
       <c r="J1367" t="str">
         <v>1648628177394</v>
@@ -56952,7 +56952,7 @@
         <v/>
       </c>
       <c r="D1369">
-        <v>-7</v>
+        <v>25</v>
       </c>
       <c r="E1369">
         <v>0</v>
@@ -56967,7 +56967,7 @@
         <v>5</v>
       </c>
       <c r="I1369">
-        <v>-39.9</v>
+        <v>142.5</v>
       </c>
       <c r="J1369" t="str">
         <v>1648649919737</v>
@@ -58750,7 +58750,7 @@
         <v/>
       </c>
       <c r="D1413">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E1413">
         <v>0</v>
@@ -58765,7 +58765,7 @@
         <v>1.3</v>
       </c>
       <c r="I1413">
-        <v>299.6</v>
+        <v>285.6</v>
       </c>
       <c r="J1413" t="str">
         <v>1648632690441</v>
@@ -59591,10 +59591,10 @@
         <v/>
       </c>
       <c r="D1433">
-        <v>-17400</v>
+        <v>-17600</v>
       </c>
       <c r="E1433">
-        <v>-1740</v>
+        <v>-1760</v>
       </c>
       <c r="F1433">
         <v>0.04</v>
@@ -59606,7 +59606,7 @@
         <v>0.02</v>
       </c>
       <c r="I1433">
-        <v>-696</v>
+        <v>-704</v>
       </c>
       <c r="J1433" t="str">
         <v>1650098678760</v>
@@ -63815,7 +63815,7 @@
         <v/>
       </c>
       <c r="D1535">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E1535">
         <v>0</v>
@@ -63830,7 +63830,7 @@
         <v>1.7</v>
       </c>
       <c r="I1535">
-        <v>257.4</v>
+        <v>253.8</v>
       </c>
       <c r="J1535" t="str">
         <v>1648301729282</v>
@@ -63947,7 +63947,7 @@
         <v/>
       </c>
       <c r="D1538">
-        <v>-652</v>
+        <v>-654</v>
       </c>
       <c r="E1538">
         <v>0</v>
@@ -63962,7 +63962,7 @@
         <v>1.7</v>
       </c>
       <c r="I1538">
-        <v>-1173.6</v>
+        <v>-1177.2</v>
       </c>
       <c r="J1538" t="str">
         <v>1648564949721</v>
@@ -64196,7 +64196,7 @@
         <v/>
       </c>
       <c r="D1544">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="E1544">
         <v>0</v>
@@ -64211,7 +64211,7 @@
         <v>2.8</v>
       </c>
       <c r="I1544">
-        <v>2116.8</v>
+        <v>2097.2</v>
       </c>
       <c r="J1544" t="str">
         <v>1648564949550</v>
@@ -67658,7 +67658,7 @@
         <v/>
       </c>
       <c r="D1628">
-        <v>9848</v>
+        <v>9838</v>
       </c>
       <c r="E1628">
         <v>0</v>
@@ -67673,7 +67673,7 @@
         <v>0.07</v>
       </c>
       <c r="I1628">
-        <v>689.36</v>
+        <v>688.66</v>
       </c>
       <c r="J1628" t="str">
         <v>1648635456628</v>
@@ -68660,7 +68660,7 @@
         <v/>
       </c>
       <c r="D1652">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E1652">
         <v>0</v>
@@ -68675,7 +68675,7 @@
         <v>30</v>
       </c>
       <c r="I1652">
-        <v>6360</v>
+        <v>6330</v>
       </c>
       <c r="J1652" t="str">
         <v>14190056</v>
@@ -68824,7 +68824,7 @@
         <v/>
       </c>
       <c r="D1656">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E1656">
         <v>0</v>
@@ -68839,7 +68839,7 @@
         <v>9</v>
       </c>
       <c r="I1656">
-        <v>2061</v>
+        <v>2043</v>
       </c>
       <c r="J1656" t="str">
         <v>1717575601257</v>
@@ -69890,7 +69890,7 @@
         <v/>
       </c>
       <c r="D1682">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E1682">
         <v>0</v>
@@ -69905,7 +69905,7 @@
         <v>11</v>
       </c>
       <c r="I1682">
-        <v>7130</v>
+        <v>7118.5</v>
       </c>
       <c r="J1682" t="str">
         <v>1717575700653</v>
@@ -70054,7 +70054,7 @@
         <v/>
       </c>
       <c r="D1686">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1686">
         <v>0</v>
@@ -70069,7 +70069,7 @@
         <v>40</v>
       </c>
       <c r="I1686">
-        <v>4080</v>
+        <v>4040</v>
       </c>
       <c r="J1686" t="str">
         <v>1717576122751</v>
@@ -70177,7 +70177,7 @@
         <v/>
       </c>
       <c r="D1689">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E1689">
         <v>0</v>
@@ -70192,7 +70192,7 @@
         <v>50</v>
       </c>
       <c r="I1689">
-        <v>3350</v>
+        <v>3050</v>
       </c>
       <c r="J1689" t="str">
         <v>1717576230920</v>
@@ -70218,7 +70218,7 @@
         <v/>
       </c>
       <c r="D1690">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E1690">
         <v>0</v>
@@ -70233,7 +70233,7 @@
         <v>50</v>
       </c>
       <c r="I1690">
-        <v>1850</v>
+        <v>1550</v>
       </c>
       <c r="J1690" t="str">
         <v>1717576297985</v>
@@ -70628,7 +70628,7 @@
         <v/>
       </c>
       <c r="D1700">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E1700">
         <v>0</v>
@@ -70643,7 +70643,7 @@
         <v>2.4</v>
       </c>
       <c r="I1700">
-        <v>8905</v>
+        <v>8900</v>
       </c>
       <c r="J1700" t="str">
         <v>1730973256461</v>
@@ -70669,7 +70669,7 @@
         <v/>
       </c>
       <c r="D1701">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="E1701">
         <v>0</v>
@@ -70684,7 +70684,7 @@
         <v>2.5</v>
       </c>
       <c r="I1701">
-        <v>1947.5</v>
+        <v>1897.5</v>
       </c>
       <c r="J1701" t="str">
         <v>1733718377032</v>
@@ -70710,7 +70710,7 @@
         <v/>
       </c>
       <c r="D1702">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E1702">
         <v>0</v>
@@ -70725,7 +70725,7 @@
         <v>3</v>
       </c>
       <c r="I1702">
-        <v>1446</v>
+        <v>1431</v>
       </c>
       <c r="J1702" t="str">
         <v>32</v>
@@ -70792,7 +70792,7 @@
         <v/>
       </c>
       <c r="D1704">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E1704">
         <v>0</v>
@@ -70807,7 +70807,7 @@
         <v>0.7</v>
       </c>
       <c r="I1704">
-        <v>57.75</v>
+        <v>54</v>
       </c>
       <c r="J1704" t="str">
         <v>1730973067227</v>
@@ -70874,7 +70874,7 @@
         <v/>
       </c>
       <c r="D1706">
-        <v>3954</v>
+        <v>3948</v>
       </c>
       <c r="E1706">
         <v>0</v>
@@ -70889,7 +70889,7 @@
         <v>2</v>
       </c>
       <c r="I1706">
-        <v>7908</v>
+        <v>7896</v>
       </c>
       <c r="J1706" t="str">
         <v>08725998</v>
@@ -72297,7 +72297,7 @@
         <v/>
       </c>
       <c r="D1741">
-        <v>2422</v>
+        <v>2402</v>
       </c>
       <c r="E1741">
         <v>0</v>
@@ -72312,7 +72312,7 @@
         <v>0.6</v>
       </c>
       <c r="I1741">
-        <v>1574.3</v>
+        <v>1561.3</v>
       </c>
       <c r="J1741" t="str">
         <v>1667811044992</v>
@@ -72537,7 +72537,7 @@
         <v/>
       </c>
       <c r="D1747">
-        <v>-1162</v>
+        <v>-1168</v>
       </c>
       <c r="E1747">
         <v>0</v>
@@ -72552,7 +72552,7 @@
         <v>0.25</v>
       </c>
       <c r="I1747">
-        <v>-348.6</v>
+        <v>-350.4</v>
       </c>
       <c r="J1747" t="str">
         <v>1649826371774</v>
@@ -72578,7 +72578,7 @@
         <v/>
       </c>
       <c r="D1748">
-        <v>-3850</v>
+        <v>-3866</v>
       </c>
       <c r="E1748">
         <v>0</v>
@@ -72593,7 +72593,7 @@
         <v>0.33</v>
       </c>
       <c r="I1748">
-        <v>-1540</v>
+        <v>-1546.4</v>
       </c>
       <c r="J1748" t="str">
         <v>1656910395561</v>
@@ -72660,7 +72660,7 @@
         <v/>
       </c>
       <c r="D1750">
-        <v>-4156</v>
+        <v>-4166</v>
       </c>
       <c r="E1750">
         <v>0</v>
@@ -72675,7 +72675,7 @@
         <v>1.4</v>
       </c>
       <c r="I1750">
-        <v>-6358.68</v>
+        <v>-6373.98</v>
       </c>
       <c r="J1750" t="str">
         <v>1675419001287</v>
@@ -72698,7 +72698,7 @@
         <v/>
       </c>
       <c r="D1751">
-        <v>-4514</v>
+        <v>-4524</v>
       </c>
       <c r="E1751">
         <v>0</v>
@@ -72713,7 +72713,7 @@
         <v>1.608</v>
       </c>
       <c r="I1751">
-        <v>-7899.5</v>
+        <v>-7917</v>
       </c>
       <c r="J1751" t="str">
         <v>1675419026727</v>
@@ -72976,7 +72976,7 @@
         <v/>
       </c>
       <c r="D1758">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E1758">
         <v>0</v>
@@ -72991,7 +72991,7 @@
         <v>0.25</v>
       </c>
       <c r="I1758">
-        <v>194.6</v>
+        <v>193.2</v>
       </c>
       <c r="J1758" t="str">
         <v>1648567091238</v>
@@ -74013,7 +74013,7 @@
         <v/>
       </c>
       <c r="D1783">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="E1783">
         <v>0</v>
@@ -74028,7 +74028,7 @@
         <v>0.42</v>
       </c>
       <c r="I1783">
-        <v>426</v>
+        <v>420.5</v>
       </c>
       <c r="J1783" t="str">
         <v>1648632693130</v>
@@ -74057,7 +74057,7 @@
         <v/>
       </c>
       <c r="D1784">
-        <v>-20</v>
+        <v>-1020</v>
       </c>
       <c r="E1784">
         <v>0</v>
@@ -74072,7 +74072,7 @@
         <v>0.36</v>
       </c>
       <c r="I1784">
-        <v>-8</v>
+        <v>-408</v>
       </c>
       <c r="J1784" t="str">
         <v>1651912628487</v>
@@ -77127,7 +77127,7 @@
         <v/>
       </c>
       <c r="D1858">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1858">
         <v>0</v>
@@ -77142,7 +77142,7 @@
         <v>1.7</v>
       </c>
       <c r="I1858">
-        <v>93.6</v>
+        <v>84.6</v>
       </c>
       <c r="J1858" t="str">
         <v>1648649919398</v>
@@ -77168,7 +77168,7 @@
         <v/>
       </c>
       <c r="D1859">
-        <v>-42</v>
+        <v>-47</v>
       </c>
       <c r="E1859">
         <v>0</v>
@@ -77183,7 +77183,7 @@
         <v>1.6</v>
       </c>
       <c r="I1859">
-        <v>-71.4</v>
+        <v>-79.9</v>
       </c>
       <c r="J1859" t="str">
         <v>1648649919228</v>
@@ -77291,7 +77291,7 @@
         <v/>
       </c>
       <c r="D1862">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1862">
         <v>0</v>
@@ -77306,7 +77306,7 @@
         <v>1.1</v>
       </c>
       <c r="I1862">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="J1862" t="str">
         <v>1648649918728</v>
@@ -77332,7 +77332,7 @@
         <v/>
       </c>
       <c r="D1863">
-        <v>-62</v>
+        <v>-2</v>
       </c>
       <c r="E1863">
         <v>0</v>
@@ -77347,7 +77347,7 @@
         <v>0.9</v>
       </c>
       <c r="I1863">
-        <v>-62</v>
+        <v>-2</v>
       </c>
       <c r="J1863" t="str">
         <v>1648649918570</v>
@@ -78460,7 +78460,7 @@
         <v/>
       </c>
       <c r="D1890">
-        <v>-445</v>
+        <v>-455</v>
       </c>
       <c r="E1890">
         <v>0</v>
@@ -78475,7 +78475,7 @@
         <v>0.35</v>
       </c>
       <c r="I1890">
-        <v>-155.75</v>
+        <v>-159.25</v>
       </c>
       <c r="J1890" t="str">
         <v>1648632695384</v>
@@ -78548,7 +78548,7 @@
         <v/>
       </c>
       <c r="D1892">
-        <v>5633</v>
+        <v>5629</v>
       </c>
       <c r="E1892">
         <v>0</v>
@@ -78563,7 +78563,7 @@
         <v>0.45</v>
       </c>
       <c r="I1892">
-        <v>2816.5</v>
+        <v>2814.5</v>
       </c>
       <c r="J1892" t="str">
         <v>1648632695815</v>
@@ -78636,7 +78636,7 @@
         <v/>
       </c>
       <c r="D1894">
-        <v>7603</v>
+        <v>7593</v>
       </c>
       <c r="E1894">
         <v>0</v>
@@ -78651,7 +78651,7 @@
         <v>0.55</v>
       </c>
       <c r="I1894">
-        <v>4181.65</v>
+        <v>4176.15</v>
       </c>
       <c r="J1894" t="str">
         <v>1648632696253</v>
@@ -78765,7 +78765,7 @@
         <v/>
       </c>
       <c r="D1897">
-        <v>1824</v>
+        <v>1814</v>
       </c>
       <c r="E1897">
         <v>0</v>
@@ -78780,7 +78780,7 @@
         <v>0.35</v>
       </c>
       <c r="I1897">
-        <v>638.4</v>
+        <v>634.9</v>
       </c>
       <c r="J1897" t="str">
         <v>1648632694153</v>
@@ -78853,7 +78853,7 @@
         <v/>
       </c>
       <c r="D1899">
-        <v>-858</v>
+        <v>-878</v>
       </c>
       <c r="E1899">
         <v>0</v>
@@ -78868,7 +78868,7 @@
         <v>0.45</v>
       </c>
       <c r="I1899">
-        <v>-429</v>
+        <v>-439</v>
       </c>
       <c r="J1899" t="str">
         <v>1648632694554</v>
@@ -78897,7 +78897,7 @@
         <v/>
       </c>
       <c r="D1900">
-        <v>-1702</v>
+        <v>-1732</v>
       </c>
       <c r="E1900">
         <v>0</v>
@@ -78912,7 +78912,7 @@
         <v>0.5</v>
       </c>
       <c r="I1900">
-        <v>-936.1</v>
+        <v>-952.6</v>
       </c>
       <c r="J1900" t="str">
         <v>1648632694757</v>
@@ -79354,10 +79354,10 @@
         <v/>
       </c>
       <c r="D1911">
-        <v>1286</v>
+        <v>1243</v>
       </c>
       <c r="E1911">
-        <v>1286</v>
+        <v>1243</v>
       </c>
       <c r="F1911">
         <v>3</v>
@@ -79369,7 +79369,7 @@
         <v>3.5</v>
       </c>
       <c r="I1911">
-        <v>3858</v>
+        <v>3729</v>
       </c>
       <c r="J1911" t="str">
         <v>1650363369153</v>
@@ -79477,7 +79477,7 @@
         <v/>
       </c>
       <c r="D1914">
-        <v>-642</v>
+        <v>-647</v>
       </c>
       <c r="E1914">
         <v>0</v>
@@ -79492,7 +79492,7 @@
         <v>0.9</v>
       </c>
       <c r="I1914">
-        <v>-577.8</v>
+        <v>-582.3</v>
       </c>
       <c r="J1914" t="str">
         <v>1648877289845</v>
@@ -82422,7 +82422,7 @@
         <v/>
       </c>
       <c r="D1984">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E1984">
         <v>0</v>
@@ -82437,7 +82437,7 @@
         <v>2.5</v>
       </c>
       <c r="I1984">
-        <v>504.4</v>
+        <v>496.6</v>
       </c>
       <c r="J1984" t="str">
         <v>1692707281630</v>
@@ -82504,7 +82504,7 @@
         <v/>
       </c>
       <c r="D1986">
-        <v>6461</v>
+        <v>6446</v>
       </c>
       <c r="E1986">
         <v>0</v>
@@ -82519,7 +82519,7 @@
         <v>1.6</v>
       </c>
       <c r="I1986">
-        <v>12275.9</v>
+        <v>12247.4</v>
       </c>
       <c r="J1986" t="str">
         <v>1648564948069</v>
@@ -82548,7 +82548,7 @@
         <v/>
       </c>
       <c r="D1987">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="E1987">
         <v>0</v>
@@ -82563,7 +82563,7 @@
         <v>2.5</v>
       </c>
       <c r="I1987">
-        <v>3220</v>
+        <v>3190</v>
       </c>
       <c r="J1987" t="str">
         <v>1652762977682</v>
@@ -82630,7 +82630,7 @@
         <v/>
       </c>
       <c r="D1989">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="E1989">
         <v>0</v>
@@ -82645,7 +82645,7 @@
         <v>2.5</v>
       </c>
       <c r="I1989">
-        <v>4257</v>
+        <v>4242</v>
       </c>
       <c r="J1989" t="str">
         <v>1692771374191</v>
@@ -82671,7 +82671,7 @@
         <v/>
       </c>
       <c r="D1990">
-        <v>8631</v>
+        <v>8621</v>
       </c>
       <c r="E1990">
         <v>0</v>
@@ -82686,7 +82686,7 @@
         <v>0.9</v>
       </c>
       <c r="I1990">
-        <v>8631</v>
+        <v>8621</v>
       </c>
       <c r="J1990" t="str">
         <v>1649062934900</v>
@@ -83210,7 +83210,7 @@
         <v/>
       </c>
       <c r="D2003">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E2003">
         <v>0</v>
@@ -83225,7 +83225,7 @@
         <v>2.5</v>
       </c>
       <c r="I2003">
-        <v>2730</v>
+        <v>2721</v>
       </c>
       <c r="J2003" t="str">
         <v>1648564950830</v>
@@ -83336,7 +83336,7 @@
         <v/>
       </c>
       <c r="D2006">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E2006">
         <v>0</v>
@@ -83351,7 +83351,7 @@
         <v>4.5</v>
       </c>
       <c r="I2006">
-        <v>1548</v>
+        <v>1539</v>
       </c>
       <c r="J2006" t="str">
         <v>1648709041027</v>
@@ -83377,7 +83377,7 @@
         <v/>
       </c>
       <c r="D2007">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E2007">
         <v>0</v>
@@ -83392,7 +83392,7 @@
         <v>5.5</v>
       </c>
       <c r="I2007">
-        <v>3355</v>
+        <v>3344</v>
       </c>
       <c r="J2007" t="str">
         <v>1648718080218</v>
@@ -83418,7 +83418,7 @@
         <v/>
       </c>
       <c r="D2008">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E2008">
         <v>0</v>
@@ -83433,7 +83433,7 @@
         <v>6.5</v>
       </c>
       <c r="I2008">
-        <v>4101.5</v>
+        <v>4088.5</v>
       </c>
       <c r="J2008" t="str">
         <v>1648718194974</v>
@@ -83459,7 +83459,7 @@
         <v/>
       </c>
       <c r="D2009">
-        <v>272.7</v>
+        <v>270.7</v>
       </c>
       <c r="E2009">
         <v>0</v>
@@ -83474,7 +83474,7 @@
         <v>7.5</v>
       </c>
       <c r="I2009">
-        <v>2045.25</v>
+        <v>2030.25</v>
       </c>
       <c r="J2009" t="str">
         <v>1648718197010</v>
@@ -83787,7 +83787,7 @@
         <v/>
       </c>
       <c r="D2017">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E2017">
         <v>0</v>
@@ -83802,7 +83802,7 @@
         <v>4.5</v>
       </c>
       <c r="I2017">
-        <v>3091.5</v>
+        <v>3069</v>
       </c>
       <c r="J2017" t="str">
         <v>19134130</v>
@@ -84373,7 +84373,7 @@
         <v/>
       </c>
       <c r="D2031">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="E2031">
         <v>0</v>
@@ -84388,7 +84388,7 @@
         <v>0.4</v>
       </c>
       <c r="I2031">
-        <v>510.3</v>
+        <v>508.05</v>
       </c>
       <c r="J2031" t="str">
         <v>1648639190470</v>
@@ -84628,7 +84628,7 @@
         <v/>
       </c>
       <c r="D2037">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="E2037">
         <v>0</v>
@@ -84643,7 +84643,7 @@
         <v>0.33</v>
       </c>
       <c r="I2037">
-        <v>463.5</v>
+        <v>459</v>
       </c>
       <c r="J2037" t="str">
         <v>1667977045019</v>
@@ -84666,7 +84666,7 @@
         <v/>
       </c>
       <c r="D2038">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E2038">
         <v>0</v>
@@ -84681,7 +84681,7 @@
         <v>0.36</v>
       </c>
       <c r="I2038">
-        <v>427.5</v>
+        <v>425.25</v>
       </c>
       <c r="J2038" t="str">
         <v>64383019</v>
@@ -86930,7 +86930,7 @@
         <v/>
       </c>
       <c r="D2093">
-        <v>-791</v>
+        <v>-801</v>
       </c>
       <c r="E2093">
         <v>0</v>
@@ -86945,7 +86945,7 @@
         <v>0.22</v>
       </c>
       <c r="I2093">
-        <v>-189.84</v>
+        <v>-192.24</v>
       </c>
       <c r="J2093" t="str">
         <v>1648719916790</v>
@@ -87094,7 +87094,7 @@
         <v/>
       </c>
       <c r="D2097">
-        <v>-7544</v>
+        <v>-7554</v>
       </c>
       <c r="E2097">
         <v>0</v>
@@ -87109,7 +87109,7 @@
         <v>0.16</v>
       </c>
       <c r="I2097">
-        <v>-1357.92</v>
+        <v>-1359.72</v>
       </c>
       <c r="J2097" t="str">
         <v>1654930329962</v>
@@ -87173,7 +87173,7 @@
         <v/>
       </c>
       <c r="D2099">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="E2099">
         <v>0</v>
@@ -87188,7 +87188,7 @@
         <v>0.32</v>
       </c>
       <c r="I2099">
-        <v>586.5</v>
+        <v>582.42</v>
       </c>
       <c r="J2099" t="str">
         <v>1648719916962</v>
@@ -87214,7 +87214,7 @@
         <v/>
       </c>
       <c r="D2100">
-        <v>-912</v>
+        <v>-926</v>
       </c>
       <c r="E2100">
         <v>0</v>
@@ -87229,7 +87229,7 @@
         <v>0.36</v>
       </c>
       <c r="I2100">
-        <v>-346.56</v>
+        <v>-351.88</v>
       </c>
       <c r="J2100" t="str">
         <v>1648719917123</v>
@@ -89059,13 +89059,13 @@
         <v/>
       </c>
       <c r="D2145">
-        <v>-940</v>
+        <v>-950</v>
       </c>
       <c r="E2145">
         <v>0</v>
       </c>
       <c r="F2145">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G2145">
         <v>0</v>
@@ -89074,7 +89074,7 @@
         <v>0.2</v>
       </c>
       <c r="I2145">
-        <v>-282</v>
+        <v>-380</v>
       </c>
       <c r="J2145" t="str">
         <v>1656764861294</v>
@@ -89355,10 +89355,10 @@
         <v/>
       </c>
       <c r="D2152">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="E2152">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="F2152">
         <v>1</v>
@@ -89370,7 +89370,7 @@
         <v>1</v>
       </c>
       <c r="I2152">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="J2152" t="str">
         <v>1649648779965</v>
@@ -89566,7 +89566,7 @@
         <v/>
       </c>
       <c r="D2157">
-        <v>-11012</v>
+        <v>-11023</v>
       </c>
       <c r="E2157">
         <v>0</v>
@@ -89581,7 +89581,7 @@
         <v>0.14</v>
       </c>
       <c r="I2157">
-        <v>-1651.8</v>
+        <v>-1653.45</v>
       </c>
       <c r="J2157" t="str">
         <v>1648648110517</v>
